--- a/inputs_RubellaBaseline.xlsx
+++ b/inputs_RubellaBaseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86030260-5796-F443-9246-6292A7434D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3D1709-ABA8-B148-B4B6-10B863833613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="singles" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
 </sst>
 </file>
@@ -499,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87749EF6-1A30-074F-A3BA-2BCBB0B5D524}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13B2701-AD49-D043-B00B-058E17252513}">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,7 +673,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
@@ -679,7 +682,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
@@ -688,7 +691,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
@@ -697,7 +700,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
@@ -706,7 +709,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
@@ -715,7 +718,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
@@ -724,7 +727,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
@@ -733,7 +736,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
@@ -742,7 +745,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
@@ -751,7 +754,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
@@ -760,7 +763,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
@@ -769,7 +772,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
@@ -778,7 +781,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
@@ -787,7 +790,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
@@ -796,7 +799,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
@@ -805,7 +808,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
@@ -814,7 +817,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
@@ -823,7 +826,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
@@ -832,7 +835,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
@@ -841,7 +844,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
@@ -850,7 +853,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
@@ -859,7 +862,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" si="0"/>
@@ -868,7 +871,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" si="0"/>
@@ -877,7 +880,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" si="0"/>
@@ -886,7 +889,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" si="0"/>
@@ -895,7 +898,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" si="0"/>
@@ -904,7 +907,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" si="0"/>
@@ -913,7 +916,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" si="0"/>
@@ -922,7 +925,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" si="0"/>
@@ -931,7 +934,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" si="0"/>
@@ -940,7 +943,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" si="0"/>
@@ -949,7 +952,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" si="0"/>
@@ -958,7 +961,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" si="0"/>
@@ -967,7 +970,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="0"/>
@@ -976,7 +979,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" si="0"/>
@@ -985,7 +988,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" si="0"/>
@@ -994,7 +997,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" s="2">
         <f>1/365</f>
@@ -1003,7 +1006,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" ref="B51:B105" si="1">1/365</f>
@@ -1012,7 +1015,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" s="2">
         <f t="shared" si="1"/>
@@ -1021,7 +1024,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" si="1"/>
@@ -1030,7 +1033,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" si="1"/>
@@ -1039,7 +1042,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="2">
         <f t="shared" si="1"/>
@@ -1048,7 +1051,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" si="1"/>
@@ -1057,7 +1060,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" s="2">
         <f t="shared" si="1"/>
@@ -1066,7 +1069,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" s="2">
         <f t="shared" si="1"/>
@@ -1075,7 +1078,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" s="2">
         <f t="shared" si="1"/>
@@ -1084,7 +1087,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" s="2">
         <f t="shared" si="1"/>
@@ -1093,7 +1096,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="2">
         <f t="shared" si="1"/>
@@ -1102,7 +1105,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" s="2">
         <f t="shared" si="1"/>
@@ -1111,7 +1114,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" s="2">
         <f t="shared" si="1"/>
@@ -1120,7 +1123,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" s="2">
         <f t="shared" si="1"/>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" s="2">
         <f t="shared" si="1"/>
@@ -1138,7 +1141,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" s="2">
         <f t="shared" si="1"/>
@@ -1147,7 +1150,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" s="2">
         <f t="shared" si="1"/>
@@ -1156,7 +1159,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" s="2">
         <f t="shared" si="1"/>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" s="2">
         <f t="shared" si="1"/>
@@ -1174,7 +1177,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" s="2">
         <f t="shared" si="1"/>
@@ -1183,7 +1186,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" s="2">
         <f t="shared" si="1"/>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" s="2">
         <f t="shared" si="1"/>
@@ -1201,7 +1204,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" s="2">
         <f t="shared" si="1"/>
@@ -1210,7 +1213,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" s="2">
         <f t="shared" si="1"/>
@@ -1219,7 +1222,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" s="2">
         <f t="shared" si="1"/>
@@ -1228,7 +1231,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" s="2">
         <f t="shared" si="1"/>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" s="2">
         <f t="shared" si="1"/>
@@ -1246,7 +1249,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" s="2">
         <f t="shared" si="1"/>
@@ -1255,7 +1258,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" s="2">
         <f t="shared" si="1"/>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" s="2">
         <f t="shared" si="1"/>
@@ -1273,7 +1276,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" s="2">
         <f t="shared" si="1"/>
@@ -1282,7 +1285,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" s="2">
         <f t="shared" si="1"/>
@@ -1291,7 +1294,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" s="2">
         <f t="shared" si="1"/>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" s="2">
         <f t="shared" si="1"/>
@@ -1309,7 +1312,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" s="2">
         <f t="shared" si="1"/>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" s="2">
         <f t="shared" si="1"/>
@@ -1327,7 +1330,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87" s="2">
         <f t="shared" si="1"/>
@@ -1336,7 +1339,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" s="2">
         <f t="shared" si="1"/>
@@ -1345,7 +1348,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" s="2">
         <f t="shared" si="1"/>
@@ -1354,7 +1357,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" s="2">
         <f t="shared" si="1"/>
@@ -1363,7 +1366,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" s="2">
         <f t="shared" si="1"/>
@@ -1372,7 +1375,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" s="2">
         <f t="shared" si="1"/>
@@ -1381,7 +1384,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" s="2">
         <f t="shared" si="1"/>
@@ -1390,7 +1393,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" s="2">
         <f t="shared" si="1"/>
@@ -1399,7 +1402,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" s="2">
         <f t="shared" si="1"/>
@@ -1408,7 +1411,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" s="2">
         <f t="shared" si="1"/>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" s="2">
         <f t="shared" si="1"/>
@@ -1426,7 +1429,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" s="2">
         <f t="shared" si="1"/>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" s="2">
         <f t="shared" si="1"/>
@@ -1444,7 +1447,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" s="2">
         <f t="shared" si="1"/>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" s="2">
         <f t="shared" si="1"/>
@@ -1462,7 +1465,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" s="2">
         <f t="shared" si="1"/>
@@ -1471,7 +1474,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" s="2">
         <f t="shared" si="1"/>
@@ -1480,7 +1483,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104" s="2">
         <f t="shared" si="1"/>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" s="2">
         <f t="shared" si="1"/>
@@ -1498,7 +1501,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" s="2">
         <f>1/3650</f>
@@ -1507,7 +1510,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107" s="2">
         <f t="shared" ref="B107:B109" si="2">1/3650</f>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108" s="2">
         <f t="shared" si="2"/>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B109" s="2">
         <f t="shared" si="2"/>
@@ -1545,7 +1548,7 @@
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2017,6 +2020,27 @@
       </c>
       <c r="Y5">
         <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2027,15 +2051,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344F7D0-9D76-E54E-959E-2F2A183F7D97}">
-  <dimension ref="A1:AD109"/>
+  <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2000</v>
       </c>
@@ -2126,8 +2150,11 @@
       <c r="AD1">
         <v>2029</v>
       </c>
+      <c r="AE1">
+        <v>2030</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5.31495776081196E-2</v>
       </c>
@@ -2218,8 +2245,11 @@
       <c r="AD2">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE2">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5.3149577608119648E-2</v>
       </c>
@@ -2310,8 +2340,11 @@
       <c r="AD3">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE3">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5.3149577608119648E-2</v>
       </c>
@@ -2402,8 +2435,11 @@
       <c r="AD4">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE4">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5.3149577608119648E-2</v>
       </c>
@@ -2494,8 +2530,11 @@
       <c r="AD5">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE5">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5.3149577608119648E-2</v>
       </c>
@@ -2586,8 +2625,11 @@
       <c r="AD6">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE6">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5.3149577608119648E-2</v>
       </c>
@@ -2678,8 +2720,11 @@
       <c r="AD7">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE7">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5.3149577608119648E-2</v>
       </c>
@@ -2770,8 +2815,11 @@
       <c r="AD8">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE8">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5.3149577608119648E-2</v>
       </c>
@@ -2862,8 +2910,11 @@
       <c r="AD9">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE9">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5.3149577608119648E-2</v>
       </c>
@@ -2954,8 +3005,11 @@
       <c r="AD10">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE10">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5.3149577608119648E-2</v>
       </c>
@@ -3046,8 +3100,11 @@
       <c r="AD11">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE11">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5.3149577608119648E-2</v>
       </c>
@@ -3138,8 +3195,11 @@
       <c r="AD12">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE12">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5.3149577608119648E-2</v>
       </c>
@@ -3230,8 +3290,11 @@
       <c r="AD13">
         <v>2.42247129888182E-2</v>
       </c>
+      <c r="AE13">
+        <v>2.42247129888182E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -3322,8 +3385,11 @@
       <c r="AD14">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE14">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -3414,8 +3480,11 @@
       <c r="AD15">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE15">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -3506,8 +3575,11 @@
       <c r="AD16">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE16">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -3598,8 +3670,11 @@
       <c r="AD17">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE17">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -3690,8 +3765,11 @@
       <c r="AD18">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE18">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -3782,8 +3860,11 @@
       <c r="AD19">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE19">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -3874,8 +3955,11 @@
       <c r="AD20">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE20">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -3966,8 +4050,11 @@
       <c r="AD21">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE21">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -4058,8 +4145,11 @@
       <c r="AD22">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE22">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -4150,8 +4240,11 @@
       <c r="AD23">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE23">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -4242,8 +4335,11 @@
       <c r="AD24">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE24">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.3868497204567965E-2</v>
       </c>
@@ -4334,8 +4430,11 @@
       <c r="AD25">
         <v>4.6721245166289338E-3</v>
       </c>
+      <c r="AE25">
+        <v>4.6721245166289338E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -4426,8 +4525,11 @@
       <c r="AD26">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE26">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -4518,8 +4620,11 @@
       <c r="AD27">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE27">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -4610,8 +4715,11 @@
       <c r="AD28">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE28">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -4702,8 +4810,11 @@
       <c r="AD29">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE29">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -4794,8 +4905,11 @@
       <c r="AD30">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE30">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -4886,8 +5000,11 @@
       <c r="AD31">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE31">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -4978,8 +5095,11 @@
       <c r="AD32">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE32">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -5070,8 +5190,11 @@
       <c r="AD33">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE33">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -5162,8 +5285,11 @@
       <c r="AD34">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE34">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -5254,8 +5380,11 @@
       <c r="AD35">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE35">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -5346,8 +5475,11 @@
       <c r="AD36">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE36">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6.2541780589139544E-3</v>
       </c>
@@ -5438,8 +5570,11 @@
       <c r="AD37">
         <v>2.4343131450175531E-3</v>
       </c>
+      <c r="AE37">
+        <v>2.4343131450175531E-3</v>
+      </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -5530,8 +5665,11 @@
       <c r="AD38">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE38">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -5622,8 +5760,11 @@
       <c r="AD39">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE39">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -5714,8 +5855,11 @@
       <c r="AD40">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE40">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -5806,8 +5950,11 @@
       <c r="AD41">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE41">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -5898,8 +6045,11 @@
       <c r="AD42">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE42">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -5990,8 +6140,11 @@
       <c r="AD43">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE43">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -6082,8 +6235,11 @@
       <c r="AD44">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE44">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -6174,8 +6330,11 @@
       <c r="AD45">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE45">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -6266,8 +6425,11 @@
       <c r="AD46">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE46">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -6358,8 +6520,11 @@
       <c r="AD47">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE47">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -6450,8 +6615,11 @@
       <c r="AD48">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE48">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4.0770137289792988E-3</v>
       </c>
@@ -6542,8 +6710,11 @@
       <c r="AD49">
         <v>1.2189887943412181E-3</v>
       </c>
+      <c r="AE49">
+        <v>1.2189887943412181E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2.9692198788789635E-3</v>
       </c>
@@ -6634,8 +6805,11 @@
       <c r="AD50">
         <v>7.7583853608498038E-4</v>
       </c>
+      <c r="AE50">
+        <v>7.7583853608498038E-4</v>
+      </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2.2450090731595887E-3</v>
       </c>
@@ -6726,8 +6900,11 @@
       <c r="AD51">
         <v>5.7750057754013941E-4</v>
       </c>
+      <c r="AE51">
+        <v>5.7750057754013941E-4</v>
+      </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.7021585254225018E-3</v>
       </c>
@@ -6818,8 +6995,11 @@
       <c r="AD52">
         <v>4.4333989184760163E-4</v>
       </c>
+      <c r="AE52">
+        <v>4.4333989184760163E-4</v>
+      </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1.2873457562425682E-3</v>
       </c>
@@ -6910,8 +7090,11 @@
       <c r="AD53">
         <v>3.9562506958743551E-4</v>
       </c>
+      <c r="AE53">
+        <v>3.9562506958743551E-4</v>
+      </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>9.853473533961302E-4</v>
       </c>
@@ -7002,8 +7185,11 @@
       <c r="AD54">
         <v>3.7280823883579817E-4</v>
       </c>
+      <c r="AE54">
+        <v>3.7280823883579817E-4</v>
+      </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7.8829921246185324E-4</v>
       </c>
@@ -7094,8 +7280,11 @@
       <c r="AD55">
         <v>3.5289211432975936E-4</v>
       </c>
+      <c r="AE55">
+        <v>3.5289211432975936E-4</v>
+      </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7.0352678393842719E-4</v>
       </c>
@@ -7186,8 +7375,11 @@
       <c r="AD56">
         <v>3.4046299444678065E-4</v>
       </c>
+      <c r="AE56">
+        <v>3.4046299444678065E-4</v>
+      </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7.3824391348174649E-4</v>
       </c>
@@ -7278,8 +7470,11 @@
       <c r="AD57">
         <v>3.5796724645698952E-4</v>
       </c>
+      <c r="AE57">
+        <v>3.5796724645698952E-4</v>
+      </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>7.3654257182248918E-4</v>
       </c>
@@ -7370,8 +7565,11 @@
       <c r="AD58">
         <v>3.8596033186940378E-4</v>
       </c>
+      <c r="AE58">
+        <v>3.8596033186940378E-4</v>
+      </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7.9879341610210731E-4</v>
       </c>
@@ -7462,8 +7660,11 @@
       <c r="AD59">
         <v>4.7023305820673123E-4</v>
       </c>
+      <c r="AE59">
+        <v>4.7023305820673123E-4</v>
+      </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>9.1147934493334879E-4</v>
       </c>
@@ -7554,8 +7755,11 @@
       <c r="AD60">
         <v>6.1362578311365055E-4</v>
       </c>
+      <c r="AE60">
+        <v>6.1362578311365055E-4</v>
+      </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1.0719195565310653E-3</v>
       </c>
@@ -7646,8 +7850,11 @@
       <c r="AD61">
         <v>8.0489178538019487E-4</v>
       </c>
+      <c r="AE61">
+        <v>8.0489178538019487E-4</v>
+      </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1.2931117072927996E-3</v>
       </c>
@@ -7738,8 +7945,11 @@
       <c r="AD62">
         <v>1.0171054953321585E-3</v>
       </c>
+      <c r="AE62">
+        <v>1.0171054953321585E-3</v>
+      </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1.6041817705103162E-3</v>
       </c>
@@ -7830,8 +8040,11 @@
       <c r="AD63">
         <v>1.2310677646761756E-3</v>
       </c>
+      <c r="AE63">
+        <v>1.2310677646761756E-3</v>
+      </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2.0497265341742244E-3</v>
       </c>
@@ -7922,8 +8135,11 @@
       <c r="AD64">
         <v>1.4498155825424172E-3</v>
       </c>
+      <c r="AE64">
+        <v>1.4498155825424172E-3</v>
+      </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2.676580903307206E-3</v>
       </c>
@@ -8014,8 +8230,11 @@
       <c r="AD65">
         <v>1.680485286941103E-3</v>
       </c>
+      <c r="AE65">
+        <v>1.680485286941103E-3</v>
+      </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3.5083138061456614E-3</v>
       </c>
@@ -8106,8 +8325,11 @@
       <c r="AD66">
         <v>1.9201584069838597E-3</v>
       </c>
+      <c r="AE66">
+        <v>1.9201584069838597E-3</v>
+      </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4.5239347104653951E-3</v>
       </c>
@@ -8198,8 +8420,11 @@
       <c r="AD67">
         <v>2.1531717371007062E-3</v>
       </c>
+      <c r="AE67">
+        <v>2.1531717371007062E-3</v>
+      </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5.6553756759356328E-3</v>
       </c>
@@ -8290,8 +8515,11 @@
       <c r="AD68">
         <v>2.374873026327599E-3</v>
       </c>
+      <c r="AE68">
+        <v>2.374873026327599E-3</v>
+      </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6.8092270265930404E-3</v>
       </c>
@@ -8382,8 +8610,11 @@
       <c r="AD69">
         <v>2.5930369761351588E-3</v>
       </c>
+      <c r="AE69">
+        <v>2.5930369761351588E-3</v>
+      </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7.8946991176817669E-3</v>
       </c>
@@ -8474,8 +8705,11 @@
       <c r="AD70">
         <v>2.803238531547775E-3</v>
       </c>
+      <c r="AE70">
+        <v>2.803238531547775E-3</v>
+      </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8.8439939856285767E-3</v>
       </c>
@@ -8566,8 +8800,11 @@
       <c r="AD71">
         <v>2.9852988763638668E-3</v>
       </c>
+      <c r="AE71">
+        <v>2.9852988763638668E-3</v>
+      </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>9.6199404359245712E-3</v>
       </c>
@@ -8658,8 +8895,11 @@
       <c r="AD72">
         <v>3.1286438574610414E-3</v>
       </c>
+      <c r="AE72">
+        <v>3.1286438574610414E-3</v>
+      </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1.0219822349359269E-2</v>
       </c>
@@ -8750,8 +8990,11 @@
       <c r="AD73">
         <v>3.2483931885263512E-3</v>
       </c>
+      <c r="AE73">
+        <v>3.2483931885263512E-3</v>
+      </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1.0666541614018437E-2</v>
       </c>
@@ -8842,8 +9085,11 @@
       <c r="AD74">
         <v>3.3808493852492336E-3</v>
       </c>
+      <c r="AE74">
+        <v>3.3808493852492336E-3</v>
+      </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1.0994429720565494E-2</v>
       </c>
@@ -8934,8 +9180,11 @@
       <c r="AD75">
         <v>3.5564851644546598E-3</v>
       </c>
+      <c r="AE75">
+        <v>3.5564851644546598E-3</v>
+      </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1.1239946914176752E-2</v>
       </c>
@@ -9026,8 +9275,11 @@
       <c r="AD76">
         <v>3.7141587140370014E-3</v>
       </c>
+      <c r="AE76">
+        <v>3.7141587140370014E-3</v>
+      </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1.1436452598432184E-2</v>
       </c>
@@ -9118,8 +9370,11 @@
       <c r="AD77">
         <v>3.7925680533629747E-3</v>
       </c>
+      <c r="AE77">
+        <v>3.7925680533629747E-3</v>
+      </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1.1609394112405032E-2</v>
       </c>
@@ -9210,8 +9465,11 @@
       <c r="AD78">
         <v>3.8201570458993531E-3</v>
       </c>
+      <c r="AE78">
+        <v>3.8201570458993531E-3</v>
+      </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1.1778721441801556E-2</v>
       </c>
@@ -9302,8 +9560,11 @@
       <c r="AD79">
         <v>3.8344823659680013E-3</v>
       </c>
+      <c r="AE79">
+        <v>3.8344823659680013E-3</v>
+      </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1.1966943107815495E-2</v>
       </c>
@@ -9394,8 +9655,11 @@
       <c r="AD80">
         <v>3.8691641713440076E-3</v>
       </c>
+      <c r="AE80">
+        <v>3.8691641713440076E-3</v>
+      </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1.2194290828075993E-2</v>
       </c>
@@ -9486,8 +9750,11 @@
       <c r="AD81">
         <v>3.9395724196364277E-3</v>
       </c>
+      <c r="AE81">
+        <v>3.9395724196364277E-3</v>
+      </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1.2470880902130568E-2</v>
       </c>
@@ -9578,8 +9845,11 @@
       <c r="AD82">
         <v>4.0499482466825817E-3</v>
       </c>
+      <c r="AE82">
+        <v>4.0499482466825817E-3</v>
+      </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1.2796638602314111E-2</v>
       </c>
@@ -9670,8 +9940,11 @@
       <c r="AD83">
         <v>4.2123271823678423E-3</v>
       </c>
+      <c r="AE83">
+        <v>4.2123271823678423E-3</v>
+      </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1.3162544566603096E-2</v>
       </c>
@@ -9762,8 +10035,11 @@
       <c r="AD84">
         <v>4.4244455053638679E-3</v>
       </c>
+      <c r="AE84">
+        <v>4.4244455053638679E-3</v>
+      </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1.3548428333937325E-2</v>
       </c>
@@ -9854,8 +10130,11 @@
       <c r="AD85">
         <v>4.6688564025423613E-3</v>
       </c>
+      <c r="AE85">
+        <v>4.6688564025423613E-3</v>
+      </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1.3930247750814605E-2</v>
       </c>
@@ -9946,8 +10225,11 @@
       <c r="AD86">
         <v>4.9464649677458446E-3</v>
       </c>
+      <c r="AE86">
+        <v>4.9464649677458446E-3</v>
+      </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1.4289497090854671E-2</v>
       </c>
@@ -10038,8 +10320,11 @@
       <c r="AD87">
         <v>5.2482132643151954E-3</v>
       </c>
+      <c r="AE87">
+        <v>5.2482132643151954E-3</v>
+      </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1.4614806784683495E-2</v>
       </c>
@@ -10130,8 +10415,11 @@
       <c r="AD88">
         <v>5.5585483731553052E-3</v>
       </c>
+      <c r="AE88">
+        <v>5.5585483731553052E-3</v>
+      </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1.490604339738796E-2</v>
       </c>
@@ -10222,8 +10510,11 @@
       <c r="AD89">
         <v>5.9115370161606697E-3</v>
       </c>
+      <c r="AE89">
+        <v>5.9115370161606697E-3</v>
+      </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1.5172781087649153E-2</v>
       </c>
@@ -10314,8 +10605,11 @@
       <c r="AD90">
         <v>6.351759328616589E-3</v>
       </c>
+      <c r="AE90">
+        <v>6.351759328616589E-3</v>
+      </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1.5430129990242082E-2</v>
       </c>
@@ -10406,8 +10700,11 @@
       <c r="AD91">
         <v>6.8613042150970655E-3</v>
       </c>
+      <c r="AE91">
+        <v>6.8613042150970655E-3</v>
+      </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1.5693529650769682E-2</v>
       </c>
@@ -10498,8 +10795,11 @@
       <c r="AD92">
         <v>7.4129587596484508E-3</v>
       </c>
+      <c r="AE92">
+        <v>7.4129587596484508E-3</v>
+      </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1.5977558725636731E-2</v>
       </c>
@@ -10590,8 +10890,11 @@
       <c r="AD93">
         <v>8.0268750380994812E-3</v>
       </c>
+      <c r="AE93">
+        <v>8.0268750380994812E-3</v>
+      </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1.6288616790779677E-2</v>
       </c>
@@ -10682,8 +10985,11 @@
       <c r="AD94">
         <v>8.6575446485620492E-3</v>
       </c>
+      <c r="AE94">
+        <v>8.6575446485620492E-3</v>
+      </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1.6629128727932166E-2</v>
       </c>
@@ -10774,8 +11080,11 @@
       <c r="AD95">
         <v>9.2589655377243348E-3</v>
       </c>
+      <c r="AE95">
+        <v>9.2589655377243348E-3</v>
+      </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1.7002133466754842E-2</v>
       </c>
@@ -10866,8 +11175,11 @@
       <c r="AD96">
         <v>9.8973665697602714E-3</v>
       </c>
+      <c r="AE96">
+        <v>9.8973665697602714E-3</v>
+      </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1.7414167897644661E-2</v>
       </c>
@@ -10958,8 +11270,11 @@
       <c r="AD97">
         <v>1.0608399201713954E-2</v>
       </c>
+      <c r="AE97">
+        <v>1.0608399201713954E-2</v>
+      </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1.7869670613775666E-2</v>
       </c>
@@ -11050,8 +11365,11 @@
       <c r="AD98">
         <v>1.1310425978428349E-2</v>
       </c>
+      <c r="AE98">
+        <v>1.1310425978428349E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1.8375925230803364E-2</v>
       </c>
@@ -11142,8 +11460,11 @@
       <c r="AD99">
         <v>1.1974090695752041E-2</v>
       </c>
+      <c r="AE99">
+        <v>1.1974090695752041E-2</v>
+      </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1.8941669490926408E-2</v>
       </c>
@@ -11234,8 +11555,11 @@
       <c r="AD100">
         <v>1.2682959667862957E-2</v>
       </c>
+      <c r="AE100">
+        <v>1.2682959667862957E-2</v>
+      </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1.9558101245170628E-2</v>
       </c>
@@ -11326,8 +11650,11 @@
       <c r="AD101">
         <v>1.3504780741993122E-2</v>
       </c>
+      <c r="AE101">
+        <v>1.3504780741993122E-2</v>
+      </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2.020164446764092E-2</v>
       </c>
@@ -11418,8 +11745,11 @@
       <c r="AD102">
         <v>1.4498664016048917E-2</v>
       </c>
+      <c r="AE102">
+        <v>1.4498664016048917E-2</v>
+      </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2.086066529955647E-2</v>
       </c>
@@ -11510,8 +11840,11 @@
       <c r="AD103">
         <v>1.5691712984342184E-2</v>
       </c>
+      <c r="AE103">
+        <v>1.5691712984342184E-2</v>
+      </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2.1544109517972764E-2</v>
       </c>
@@ -11602,8 +11935,11 @@
       <c r="AD104">
         <v>1.69799934329996E-2</v>
       </c>
+      <c r="AE104">
+        <v>1.69799934329996E-2</v>
+      </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2.2277129742224441E-2</v>
       </c>
@@ -11694,8 +12030,11 @@
       <c r="AD105">
         <v>1.8265031066813486E-2</v>
       </c>
+      <c r="AE105">
+        <v>1.8265031066813486E-2</v>
+      </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2.887969122884846E-2</v>
       </c>
@@ -11786,8 +12125,11 @@
       <c r="AD106">
         <v>2.6944618799156238E-2</v>
       </c>
+      <c r="AE106">
+        <v>2.6944618799156238E-2</v>
+      </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5.3763792845991289E-2</v>
       </c>
@@ -11878,8 +12220,11 @@
       <c r="AD107">
         <v>5.5999000002046342E-2</v>
       </c>
+      <c r="AE107">
+        <v>5.5999000002046342E-2</v>
+      </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.11390174303732555</v>
       </c>
@@ -11970,8 +12315,11 @@
       <c r="AD108">
         <v>0.1174543316731775</v>
       </c>
+      <c r="AE108">
+        <v>0.1174543316731775</v>
+      </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.19442177668345256</v>
       </c>
@@ -12062,9 +12410,12 @@
       <c r="AD109">
         <v>0.20166064286861701</v>
       </c>
+      <c r="AE109">
+        <v>0.20166064286861701</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AE1:AE109 A2:AD109">
+  <conditionalFormatting sqref="A2:AE109">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -12094,8 +12445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC59553-69C0-D54B-B420-77D9132C3F5F}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X115" sqref="X115"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22480,8 +22831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AFDABE-913B-724B-9095-CB91D42CE4C3}">
   <dimension ref="A1:DD108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="66" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AH34" sqref="AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57695,6 +58046,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:DD108">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs_RubellaBaseline.xlsx
+++ b/inputs_RubellaBaseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3D1709-ABA8-B148-B4B6-10B863833613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91256477-0621-7840-988B-C72F74837E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="singles" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87749EF6-1A30-074F-A3BA-2BCBB0B5D524}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13B2701-AD49-D043-B00B-058E17252513}">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2053,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344F7D0-9D76-E54E-959E-2F2A183F7D97}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A45" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22831,7 +22831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AFDABE-913B-724B-9095-CB91D42CE4C3}">
   <dimension ref="A1:DD108"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="66" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="AH34" sqref="AH34"/>
     </sheetView>
   </sheetViews>
